--- a/1st year/Physics/lab 3-13/lab3-13.xlsx
+++ b/1st year/Physics/lab 3-13/lab3-13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senin\Desktop\ITMO\Physics\3-13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D699F437-A626-4125-BDE2-F32350EAABA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754C7C4A-78FE-4A0D-ADA8-6C43B427D769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>sin(a)/sin(f-a)</t>
   </si>
@@ -118,13 +118,16 @@
     <t>sin(a)/sin(f-a)= gamma</t>
   </si>
   <si>
-    <t>B_c*gamma</t>
+    <t>B_c * gamma</t>
   </si>
   <si>
-    <t>(B_c-A*gamma)^2</t>
+    <t>(B_c - A*gamma)^2</t>
   </si>
   <si>
-    <t>gamma*2</t>
+    <t>gamma * 2</t>
+  </si>
+  <si>
+    <t>апроксимация</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -239,6 +242,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -290,24 +302,29 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>B_c</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>(</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
+              <a:rPr lang="el-GR">
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>γ</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>)</a:t>
             </a:r>
@@ -373,7 +390,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="2"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -386,26 +403,159 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$H$8:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.347296355333861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53208888623795592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65270364466613928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74222719896855904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81520746909590458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87938524157181674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93969262078590832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0641777724759123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1371580426032577</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2266815969056775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3472963553338611</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5320888862379562</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8793852415718173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$J$8:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.5957899040408678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9926780939841162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.590298474528955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.388651045675383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.386820569171409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.985356187968232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.784623997366644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.184257902065852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.582976568513072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.381329139659496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.779132567854731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.776386853098778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.769980185334873</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.348380562588019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBD5-483E-B755-A93DCA2E2EAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>апроксимация</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="3"/>
-            <c:backward val="3"/>
+            <c:forward val="0.4"/>
+            <c:backward val="0.4"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7764216972878392E-2"/>
-                  <c:y val="-4.4052566345873477E-2"/>
+                  <c:x val="6.1319116360454944E-2"/>
+                  <c:y val="-5.9176509186351707E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -439,105 +589,103 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:strRef>
-              <c:f>Лист1!$H$7:$H$21</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
+            <c:numRef>
+              <c:f>Лист1!$H$8:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>sin(a)/sin(f-a)= gamma</c:v>
+                  <c:v>0.347296355333861</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.53208888623795592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53</c:v>
+                  <c:v>0.65270364466613928</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65</c:v>
+                  <c:v>0.74222719896855904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74</c:v>
+                  <c:v>0.81520746909590458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82</c:v>
+                  <c:v>0.87938524157181674</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88</c:v>
+                  <c:v>0.93969262078590832</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.00</c:v>
+                  <c:v>1.0641777724759123</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.06</c:v>
+                  <c:v>1.1371580426032577</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.14</c:v>
+                  <c:v>1.2266815969056775</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.23</c:v>
+                  <c:v>1.3472963553338611</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.35</c:v>
+                  <c:v>1.5320888862379562</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.88</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1.8793852415718173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$J$8:$J$21</c:f>
+              <c:f>Лист1!$N$8:$N$21</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.5957899040408678</c:v>
+                  <c:v>6.4204228281011924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9926780939841162</c:v>
+                  <c:v>9.8366584598822939</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.590298474528955</c:v>
+                  <c:v>12.066447907784157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.388651045675383</c:v>
+                  <c:v>13.721458283990001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.386820569171409</c:v>
+                  <c:v>15.070635104104234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.985356187968232</c:v>
+                  <c:v>16.257081287983482</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.784623997366644</c:v>
+                  <c:v>17.371976011934414</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.184257902065852</c:v>
+                  <c:v>18.486870735885343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.582976568513072</c:v>
+                  <c:v>19.673316919764595</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.381329139659496</c:v>
+                  <c:v>21.022493739878822</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.779132567854731</c:v>
+                  <c:v>22.67750411608467</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.776386853098778</c:v>
+                  <c:v>24.907293563986535</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.769980185334873</c:v>
+                  <c:v>28.323529195767644</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.348380562588019</c:v>
+                  <c:v>34.743952023868843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,7 +693,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-46D4-4F2B-AFEC-3B21B4A65FB3}"/>
+              <c16:uniqueId val="{00000001-EBD5-483E-B755-A93DCA2E2EAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -557,11 +705,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="534888496"/>
-        <c:axId val="534889152"/>
+        <c:axId val="627723824"/>
+        <c:axId val="627724152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="534888496"/>
+        <c:axId val="627723824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,17 +749,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="el-GR"/>
                   <a:t>γ</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.85911701662292206"/>
+              <c:y val="0.75425853018372691"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -641,7 +792,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -678,12 +829,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534889152"/>
+        <c:crossAx val="627724152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534889152"/>
+        <c:axId val="627724152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,13 +875,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>В_с,</a:t>
+                  <a:t>В_с, мкТл</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> мкТл</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -800,7 +946,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534888496"/>
+        <c:crossAx val="627723824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -812,6 +958,41 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2595,23 +2776,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581221</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>841375</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>494394</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B994D2-B21C-4F11-A43A-B0BF4EE09D3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F621C31-2F51-4CAB-ADA3-22B3C91BC780}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,13 +3119,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF67F670-0EFC-4610-BE61-FCC7731BBB2A}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="G27" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="19.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" customWidth="1"/>
     <col min="11" max="11" width="10.1796875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
@@ -2984,15 +3166,15 @@
       </c>
       <c r="K2" s="18">
         <f>K22/M22</f>
-        <v>2.0973811298150541E-5</v>
+        <v>1.8486870735885344E-5</v>
       </c>
       <c r="L2" s="18">
         <f>SQRT(L22/((C5-1)*M22))</f>
-        <v>1.374835172239311E-6</v>
+        <v>4.6136899198784132E-7</v>
       </c>
       <c r="M2" s="18">
         <f>H1*L2</f>
-        <v>2.4210847383134267E-6</v>
+        <v>8.1247079489058854E-7</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.35">
@@ -3005,6 +3187,10 @@
       <c r="D3">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="K3" s="13">
+        <f>K2*10^5</f>
+        <v>1.8486870735885343</v>
+      </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -3023,7 +3209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +3228,7 @@
       <c r="G7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="24" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="16" t="s">
@@ -3051,16 +3237,18 @@
       <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="19"/>
+      <c r="N7" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -3103,13 +3291,16 @@
       </c>
       <c r="L8" s="23">
         <f>(I8-$K$2*H8)^2</f>
-        <v>7.227162908085811E-12</v>
+        <v>3.3292853075649306E-12</v>
       </c>
       <c r="M8" s="21">
         <f>H8*H8</f>
         <v>0.12061475842818344</v>
       </c>
-      <c r="N8" s="21"/>
+      <c r="N8" s="21">
+        <f>H8*($K$2*10^6)</f>
+        <v>6.4204228281011924</v>
+      </c>
       <c r="O8" s="21"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="19"/>
@@ -3152,13 +3343,16 @@
       </c>
       <c r="L9" s="23">
         <f t="shared" ref="L9:L21" si="4">(I9-$K$2*H9)^2</f>
-        <v>1.0031496632435344E-11</v>
+        <v>3.4002635898179749E-12</v>
       </c>
       <c r="M9" s="21">
         <f t="shared" ref="M9:M21" si="5">H9*H9</f>
         <v>0.28311858285794839</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="N9" s="21">
+        <f t="shared" ref="N9:N21" si="6">H9*$K$2* 10^6</f>
+        <v>9.8366584598822939</v>
+      </c>
       <c r="O9" s="13"/>
       <c r="P9" s="8"/>
     </row>
@@ -3187,7 +3381,7 @@
         <v>0.65270364466613928</v>
       </c>
       <c r="I10" s="18">
-        <f t="shared" ref="I10:I21" si="6">(4/5)^(3/2)*$C$1*$C$2/$C$3*G10</f>
+        <f t="shared" ref="I10:I21" si="7">(4/5)^(3/2)*$C$1*$C$2/$C$3*G10</f>
         <v>1.0590298474528955E-5</v>
       </c>
       <c r="J10" s="15">
@@ -3200,13 +3394,16 @@
       </c>
       <c r="L10" s="23">
         <f t="shared" si="4"/>
-        <v>9.6061849130595867E-12</v>
+        <v>2.1790171492996512E-12</v>
       </c>
       <c r="M10" s="21">
         <f t="shared" si="5"/>
         <v>0.42602204776046182</v>
       </c>
-      <c r="N10" s="13"/>
+      <c r="N10" s="21">
+        <f t="shared" si="6"/>
+        <v>12.066447907784157</v>
+      </c>
       <c r="O10" s="13"/>
       <c r="P10" s="8"/>
     </row>
@@ -3235,7 +3432,7 @@
         <v>0.74222719896855904</v>
       </c>
       <c r="I11" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2388651045675382E-5</v>
       </c>
       <c r="J11" s="15">
@@ -3248,13 +3445,16 @@
       </c>
       <c r="L11" s="23">
         <f t="shared" si="4"/>
-        <v>1.010402031146748E-11</v>
+        <v>1.7763751345038437E-12</v>
       </c>
       <c r="M11" s="21">
         <f t="shared" si="5"/>
         <v>0.55090121488871291</v>
       </c>
-      <c r="N11" s="13"/>
+      <c r="N11" s="21">
+        <f t="shared" si="6"/>
+        <v>13.721458283990001</v>
+      </c>
       <c r="O11" s="13"/>
       <c r="P11" s="8"/>
     </row>
@@ -3283,7 +3483,7 @@
         <v>0.81520746909590458</v>
       </c>
       <c r="I12" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4386820569171409E-5</v>
       </c>
       <c r="J12" s="15">
@@ -3296,13 +3496,16 @@
       </c>
       <c r="L12" s="23">
         <f t="shared" si="4"/>
-        <v>7.3505352552733955E-12</v>
+        <v>4.6760231818539488E-13</v>
       </c>
       <c r="M12" s="21">
         <f t="shared" si="5"/>
         <v>0.66456321766975024</v>
       </c>
-      <c r="N12" s="13"/>
+      <c r="N12" s="21">
+        <f t="shared" si="6"/>
+        <v>15.070635104104234</v>
+      </c>
       <c r="O12" s="13"/>
       <c r="P12" s="8"/>
     </row>
@@ -3331,7 +3534,7 @@
         <v>0.87938524157181674</v>
       </c>
       <c r="I13" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5985356187968233E-5</v>
       </c>
       <c r="J13" s="15">
@@ -3344,13 +3547,16 @@
       </c>
       <c r="L13" s="23">
         <f t="shared" si="4"/>
-        <v>6.0452250013217603E-12</v>
+        <v>7.3834529978297305E-14</v>
       </c>
       <c r="M13" s="21">
         <f t="shared" si="5"/>
         <v>0.77331840309432254</v>
       </c>
-      <c r="N13" s="13"/>
+      <c r="N13" s="21">
+        <f t="shared" si="6"/>
+        <v>16.257081287983482</v>
+      </c>
       <c r="O13" s="13"/>
       <c r="P13" s="8"/>
     </row>
@@ -3379,7 +3585,7 @@
         <v>0.93969262078590832</v>
       </c>
       <c r="I14" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6784623997366643E-5</v>
       </c>
       <c r="J14" s="15">
@@ -3392,13 +3598,16 @@
       </c>
       <c r="L14" s="23">
         <f t="shared" si="4"/>
-        <v>8.5515989729241065E-12</v>
+        <v>3.4498238901681773E-13</v>
       </c>
       <c r="M14" s="21">
         <f t="shared" si="5"/>
         <v>0.88302222155948884</v>
       </c>
-      <c r="N14" s="13"/>
+      <c r="N14" s="21">
+        <f t="shared" si="6"/>
+        <v>17.371976011934414</v>
+      </c>
       <c r="O14" s="13"/>
       <c r="P14" s="8"/>
     </row>
@@ -3427,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7184257902065853E-5</v>
       </c>
       <c r="J15" s="15">
@@ -3440,13 +3649,16 @@
       </c>
       <c r="L15" s="23">
         <f t="shared" si="4"/>
-        <v>1.4360714941776993E-11</v>
+        <v>1.6968001948312431E-12</v>
       </c>
       <c r="M15" s="21">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N15" s="13"/>
+      <c r="N15" s="21">
+        <f t="shared" si="6"/>
+        <v>18.486870735885343</v>
+      </c>
       <c r="O15" s="13"/>
       <c r="P15" s="8"/>
     </row>
@@ -3475,7 +3687,7 @@
         <v>1.0641777724759123</v>
       </c>
       <c r="I16" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.858297656851307E-5</v>
       </c>
       <c r="J16" s="15">
@@ -3488,13 +3700,16 @@
       </c>
       <c r="L16" s="23">
         <f t="shared" si="4"/>
-        <v>1.3964326088145099E-11</v>
+        <v>1.1888420815672963E-12</v>
       </c>
       <c r="M16" s="21">
         <f t="shared" si="5"/>
         <v>1.1324743314317944</v>
       </c>
-      <c r="N16" s="13"/>
+      <c r="N16" s="21">
+        <f t="shared" si="6"/>
+        <v>19.673316919764595</v>
+      </c>
       <c r="O16" s="13"/>
       <c r="P16" s="8"/>
     </row>
@@ -3523,7 +3738,7 @@
         <v>1.1371580426032577</v>
       </c>
       <c r="I17" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0381329139659497E-5</v>
       </c>
       <c r="J17" s="15">
@@ -3536,13 +3751,16 @@
       </c>
       <c r="L17" s="23">
         <f t="shared" si="4"/>
-        <v>1.2035411516386531E-11</v>
+        <v>4.1109204457440689E-13</v>
       </c>
       <c r="M17" s="21">
         <f t="shared" si="5"/>
         <v>1.2931284138572725</v>
       </c>
-      <c r="N17" s="13"/>
+      <c r="N17" s="21">
+        <f t="shared" si="6"/>
+        <v>21.022493739878822</v>
+      </c>
       <c r="O17" s="13"/>
       <c r="P17" s="8"/>
     </row>
@@ -3571,7 +3789,7 @@
         <v>1.2266815969056775</v>
       </c>
       <c r="I18" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2779132567854731E-5</v>
       </c>
       <c r="J18" s="15">
@@ -3584,13 +3802,16 @@
       </c>
       <c r="L18" s="23">
         <f t="shared" si="4"/>
-        <v>8.6969299260706097E-12</v>
+        <v>1.0328342209179342E-14</v>
       </c>
       <c r="M18" s="21">
         <f t="shared" si="5"/>
         <v>1.504747740187063</v>
       </c>
-      <c r="N18" s="13"/>
+      <c r="N18" s="21">
+        <f t="shared" si="6"/>
+        <v>22.67750411608467</v>
+      </c>
       <c r="O18" s="13"/>
       <c r="P18" s="8"/>
     </row>
@@ -3619,7 +3840,7 @@
         <v>1.3472963553338611</v>
       </c>
       <c r="I19" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5776386853098778E-5</v>
       </c>
       <c r="J19" s="15">
@@ -3632,13 +3853,16 @@
       </c>
       <c r="L19" s="23">
         <f t="shared" si="4"/>
-        <v>6.1581036359164506E-12</v>
+        <v>7.5532314517993583E-13</v>
       </c>
       <c r="M19" s="21">
         <f t="shared" si="5"/>
         <v>1.8152074690959057</v>
       </c>
-      <c r="N19" s="13"/>
+      <c r="N19" s="21">
+        <f t="shared" si="6"/>
+        <v>24.907293563986535</v>
+      </c>
       <c r="O19" s="13"/>
       <c r="P19" s="8"/>
     </row>
@@ -3667,7 +3891,7 @@
         <v>1.5320888862379562</v>
       </c>
       <c r="I20" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2769980185334873E-5</v>
       </c>
       <c r="J20" s="15">
@@ -3680,13 +3904,16 @@
       </c>
       <c r="L20" s="23">
         <f t="shared" si="4"/>
-        <v>4.0479751175329822E-13</v>
+        <v>1.9770926402623389E-11</v>
       </c>
       <c r="M20" s="21">
         <f t="shared" si="5"/>
         <v>2.3472963553338611</v>
       </c>
-      <c r="N20" s="13"/>
+      <c r="N20" s="21">
+        <f t="shared" si="6"/>
+        <v>28.323529195767644</v>
+      </c>
       <c r="O20" s="13"/>
       <c r="P20" s="8"/>
     </row>
@@ -3704,37 +3931,40 @@
         <v>96</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C21:E21)</f>
         <v>94</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" si="1"/>
+        <f>F21*0.001</f>
         <v>9.4E-2</v>
       </c>
       <c r="H21" s="17">
         <v>1.8793852415718173</v>
       </c>
       <c r="I21" s="18">
-        <f t="shared" si="6"/>
+        <f>(4/5)^(3/2)*$C$1*$C$2/$C$3*G21</f>
         <v>5.6348380562588017E-5</v>
       </c>
       <c r="J21" s="15">
-        <f t="shared" si="2"/>
+        <f>I21*10^6</f>
         <v>56.348380562588019</v>
       </c>
       <c r="K21" s="18">
-        <f t="shared" si="3"/>
+        <f>I21*H21</f>
         <v>1.0590031481580018E-4</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="4"/>
-        <v>2.866421400556028E-10</v>
+        <f>(I21-$K$2*H21)^2</f>
+        <v>4.667513324846237E-10</v>
       </c>
       <c r="M21" s="21">
-        <f t="shared" si="5"/>
+        <f>H21*H21</f>
         <v>3.532088886237958</v>
       </c>
-      <c r="N21" s="13"/>
+      <c r="N21" s="21">
+        <f>H21*$K$2* 10^6</f>
+        <v>34.743952023868843</v>
+      </c>
       <c r="O21" s="13"/>
       <c r="P21" s="8"/>
     </row>
@@ -3749,25 +3979,25 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="18">
-        <f t="shared" ref="H22:I22" si="7">SUM(H8:H21)</f>
-        <v>14.095389311788628</v>
+        <f>SUM(H8:H20)</f>
+        <v>12.21600407021681</v>
       </c>
       <c r="I22" s="18">
-        <f t="shared" si="7"/>
-        <v>2.7654666205185043E-4</v>
+        <f>SUM(I8:I20)</f>
+        <v>2.2019828148926241E-4</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="18">
-        <f>SUM(K8:K21)</f>
-        <v>3.4242900655432219E-4</v>
+        <f>SUM(K8:K20)</f>
+        <v>2.3652869173852202E-4</v>
       </c>
       <c r="L22" s="18">
-        <f>SUM(L8:L21)</f>
-        <v>4.0117864767021927E-10</v>
+        <f>SUM(L8:L20)</f>
+        <v>3.5404672629352366E-11</v>
       </c>
       <c r="M22" s="18">
-        <f>SUM(M8:M21)</f>
-        <v>16.326503642402724</v>
+        <f>SUM(M8:M20)</f>
+        <v>12.794414756164766</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -3786,20 +4016,20 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="18">
-        <f t="shared" ref="I23:K23" si="8">AVERAGE(I8:I21)</f>
+        <f>AVERAGE(I8:I21)</f>
         <v>1.97533330037036E-5</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="18">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(K8:K21)</f>
         <v>2.4459214753880156E-5</v>
       </c>
       <c r="L23" s="18">
-        <f t="shared" ref="L23:M23" si="9">AVERAGE(L8:L21)</f>
-        <v>2.8655617690729947E-11</v>
+        <f>AVERAGE(L8:L21)</f>
+        <v>3.5868286079569722E-11</v>
       </c>
       <c r="M23" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L23:M23" si="8">AVERAGE(M8:M21)</f>
         <v>1.1661788316001946</v>
       </c>
       <c r="N23" s="8"/>
